--- a/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,63%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; -0,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; -9,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; -9,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,86; -0,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,02; -3,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,53; -39,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,15; -38,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,64; -3,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,04; -5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; -10,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,07; -7,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 13,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; -32,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,06; -39,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,69; -27,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,02; 96,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,69%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; -6,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,29; -6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; -7,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,22; -7,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,1; -28,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,42; -25,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,95; -23,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,3; -23,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,95%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,87; -6,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,66; -9,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,03; -13,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; -7,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,99; -32,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,44; -32,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,4; -38,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,94; -28,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,48%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; -7,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; -10,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,71; -11,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,85; -1,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; -34,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,67; -39,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,31; -37,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,86; -9,74</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -0,51</t>
+          <t>-7,88; -0,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -9,63</t>
+          <t>-18,09; -9,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,61; -9,82</t>
+          <t>-18,79; -9,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -0,65</t>
+          <t>-10,61; -0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -3,62</t>
+          <t>-44,56; -1,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,53; -39,58</t>
+          <t>-64,23; -40,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -38,96</t>
+          <t>-62,11; -38,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,64; -3,19</t>
+          <t>-37,68; -1,85</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -5,85</t>
+          <t>-13,08; -6,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -10,38</t>
+          <t>-17,66; -10,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -7,73</t>
+          <t>-15,69; -7,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 13,37</t>
+          <t>-6,69; 11,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -32,48</t>
+          <t>-59,59; -33,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,06; -39,81</t>
+          <t>-59,01; -39,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,69; -27,01</t>
+          <t>-46,7; -26,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 96,77</t>
+          <t>-22,13; 87,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -6,36</t>
+          <t>-14,32; -5,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -6,31</t>
+          <t>-14,96; -5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -7,37</t>
+          <t>-16,22; -7,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,22; -7,53</t>
+          <t>-23,75; -6,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,1; -28,47</t>
+          <t>-53,67; -26,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,42; -25,31</t>
+          <t>-51,47; -22,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,95; -23,84</t>
+          <t>-46,47; -24,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,3; -23,95</t>
+          <t>-69,28; -22,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -6,99</t>
+          <t>-13,58; -6,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -9,19</t>
+          <t>-16,41; -8,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -13,29</t>
+          <t>-21,35; -13,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -7,41</t>
+          <t>-15,48; -7,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -32,61</t>
+          <t>-54,74; -30,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,44; -32,74</t>
+          <t>-51,39; -32,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,4; -38,42</t>
+          <t>-54,51; -38,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -28,41</t>
+          <t>-51,82; -28,22</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -7,02</t>
+          <t>-10,76; -7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -10,52</t>
+          <t>-14,65; -10,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -11,62</t>
+          <t>-16,06; -11,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -1,59</t>
+          <t>-10,68; -1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -34,99</t>
+          <t>-49,24; -35,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,67; -39,92</t>
+          <t>-51,08; -39,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -37,07</t>
+          <t>-47,73; -37,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -9,74</t>
+          <t>-38,19; -9,71</t>
         </is>
       </c>
     </row>
